--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -2069,7 +2069,7 @@
         <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>105</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -427,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -439,6 +445,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,45 +467,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -520,1685 +536,1940 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -445,7 +445,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1675,7 +1675,7 @@
         <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>83</v>
@@ -2204,7 +2204,7 @@
         <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>103</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento perdita di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.6</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento perdita di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.6</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -537,1939 +540,1939 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -942,7 +948,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -1034,7 +1040,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1149,7 +1155,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>34</v>
@@ -1221,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1238,7 +1244,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1247,7 +1253,7 @@
         <v>27</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1258,19 +1264,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1281,19 +1287,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1304,19 +1310,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1327,19 +1333,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1350,19 +1356,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1373,19 +1379,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1402,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1425,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1448,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1465,19 +1471,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1488,19 +1494,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1517,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>93</v>
@@ -1543,10 +1549,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1557,7 +1563,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>94</v>
@@ -1566,10 +1572,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1586,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1609,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>97</v>
@@ -1635,10 +1641,10 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1649,7 +1655,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>98</v>
@@ -1658,10 +1664,10 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1672,7 +1678,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>99</v>
@@ -1681,10 +1687,10 @@
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1747,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1816,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1839,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1862,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1954,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1971,7 +1977,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>89</v>
@@ -1980,10 +1986,10 @@
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>90</v>
@@ -2003,10 +2009,10 @@
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2023,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2092,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2115,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2207,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2230,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2253,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2276,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2299,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2322,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2345,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2391,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2414,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2437,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2454,24 +2460,93 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="B91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -242,6 +242,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>flag dichiarante</t>
   </si>
   <si>
@@ -318,6 +342,12 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Indirizzo PEC</t>
@@ -442,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -452,7 +482,7 @@
     <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1178,7 +1208,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>34</v>
@@ -1201,7 +1231,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>34</v>
@@ -1224,7 +1254,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>34</v>
@@ -1247,10 +1277,10 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1267,16 +1297,16 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1287,19 +1317,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1310,19 +1340,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1333,19 +1363,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1356,19 +1386,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1379,19 +1409,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1402,19 +1432,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1425,19 +1455,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1478,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1501,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1609,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1632,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1938,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2138,7 +2168,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>95</v>
@@ -2147,10 +2177,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2161,7 +2191,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>96</v>
@@ -2170,10 +2200,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2184,7 +2214,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>97</v>
@@ -2193,10 +2223,10 @@
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2207,7 +2237,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>98</v>
@@ -2216,10 +2246,10 @@
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2230,7 +2260,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>99</v>
@@ -2239,10 +2269,10 @@
         <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2253,7 +2283,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>100</v>
@@ -2262,10 +2292,10 @@
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2306,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2375,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2421,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2460,19 +2490,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2483,19 +2513,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2506,19 +2536,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2529,24 +2559,346 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -134,6 +134,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -317,10 +323,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -472,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -794,7 +797,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -886,7 +889,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
@@ -1001,7 +1004,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1093,7 +1096,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1300,7 +1303,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -1372,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1389,7 +1392,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1398,7 +1401,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1409,19 +1412,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1432,19 +1435,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1455,19 +1458,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1478,19 +1481,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1504,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1527,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1550,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1573,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>99</v>
@@ -1602,10 +1605,10 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>100</v>
@@ -1625,10 +1628,10 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1642,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1665,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1688,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1711,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1734,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1757,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1780,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1803,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1826,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1849,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1872,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1895,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1918,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1941,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1964,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1987,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2010,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2033,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2056,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2079,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2102,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2125,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2148,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2171,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2194,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2217,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2240,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2263,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2286,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2309,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2332,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2355,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2378,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2401,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2424,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2447,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2470,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2493,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2516,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2539,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2562,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2585,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2608,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2631,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2654,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2677,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2700,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2720,10 +2723,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
@@ -2732,7 +2735,7 @@
         <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2746,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2769,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2792,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2815,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2838,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2861,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2881,24 +2884,93 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1073,7 +1079,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1096,7 +1102,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1326,7 +1332,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>34</v>
@@ -1398,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1415,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1424,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1435,19 +1441,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1458,19 +1464,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1481,19 +1487,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1504,19 +1510,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1527,19 +1533,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1550,19 +1556,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1573,19 +1579,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1596,19 +1602,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1625,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1642,19 +1648,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1671,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1717,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1803,7 +1809,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>106</v>
@@ -1812,10 +1818,10 @@
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1826,7 +1832,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>107</v>
@@ -1835,10 +1841,10 @@
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1849,7 +1855,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>108</v>
@@ -1858,10 +1864,10 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>109</v>
@@ -1881,10 +1887,10 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1895,7 +1901,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>110</v>
@@ -1904,10 +1910,10 @@
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1970,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2039,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>101</v>
@@ -2341,10 +2347,10 @@
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2355,7 +2361,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>102</v>
@@ -2364,10 +2370,10 @@
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2453,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2470,7 +2476,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>105</v>
@@ -2479,10 +2485,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2545,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2614,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2683,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2706,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2729,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2844,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2890,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2907,19 +2913,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2936,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2953,24 +2959,93 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="B111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1789,7 +1795,7 @@
         <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
@@ -1798,7 +1804,7 @@
         <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,7 +1818,7 @@
         <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
@@ -1821,7 +1827,7 @@
         <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,7 +1841,7 @@
         <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
@@ -1844,7 +1850,7 @@
         <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,7 +1864,7 @@
         <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
@@ -1867,7 +1873,7 @@
         <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,7 +1887,7 @@
         <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
@@ -1890,7 +1896,7 @@
         <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,7 +1910,7 @@
         <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
@@ -1913,7 +1919,7 @@
         <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,7 +1933,7 @@
         <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
@@ -1936,7 +1942,7 @@
         <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,7 +1956,7 @@
         <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
@@ -1959,7 +1965,7 @@
         <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,16 +1979,16 @@
         <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,7 +2002,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2005,7 +2011,7 @@
         <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,7 +2025,7 @@
         <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -2028,7 +2034,7 @@
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2042,16 +2048,16 @@
         <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2065,7 +2071,7 @@
         <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -2074,7 +2080,7 @@
         <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2088,7 +2094,7 @@
         <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
@@ -2097,7 +2103,7 @@
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2111,7 +2117,7 @@
         <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
@@ -2120,7 +2126,7 @@
         <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2134,7 +2140,7 @@
         <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
@@ -2143,7 +2149,7 @@
         <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2163,10 +2169,10 @@
         <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2321,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2344,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>106</v>
@@ -2531,10 +2537,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2568,7 +2574,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>108</v>
@@ -2577,10 +2583,10 @@
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2591,7 +2597,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>109</v>
@@ -2600,10 +2606,10 @@
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2614,7 +2620,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>110</v>
@@ -2623,10 +2629,10 @@
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2637,7 +2643,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>111</v>
@@ -2646,10 +2652,10 @@
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2660,7 +2666,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>112</v>
@@ -2669,10 +2675,10 @@
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2689,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2712,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2735,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2781,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2804,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2827,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2844,19 +2850,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2873,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2913,19 +2919,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2936,19 +2942,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2959,19 +2965,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2982,19 +2988,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3005,19 +3011,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3028,24 +3034,70 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="B113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,6 +381,81 @@
   </si>
   <si>
     <t>evento.padre.recapito</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -487,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
@@ -2948,7 +3023,7 @@
         <v>124</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>125</v>
@@ -2960,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
@@ -2968,22 +3043,22 @@
         <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109">
@@ -2991,22 +3066,22 @@
         <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
@@ -3014,22 +3089,22 @@
         <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111">
@@ -3037,7 +3112,7 @@
         <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>33</v>
@@ -3046,13 +3121,13 @@
         <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
@@ -3060,22 +3135,22 @@
         <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113">
@@ -3098,6 +3173,282 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Ulteriore cittadinanza di cui è in possesso</t>
@@ -562,14 +568,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1505,10 +1511,10 @@
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1525,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1534,7 +1540,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1551,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1574,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1597,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1643,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1712,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1735,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1827,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1873,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1896,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1919,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2034,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2080,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2103,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2218,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2258,7 +2264,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>117</v>
@@ -2267,10 +2273,10 @@
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2402,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2425,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2701,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2839,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2954,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2994,7 +3000,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>117</v>
@@ -3003,10 +3009,10 @@
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3017,53 +3023,53 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>130</v>
@@ -3072,7 +3078,7 @@
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>131</v>
@@ -3081,12 +3087,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>132</v>
@@ -3095,7 +3101,7 @@
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>133</v>
@@ -3104,12 +3110,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>134</v>
@@ -3118,7 +3124,7 @@
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>135</v>
@@ -3127,12 +3133,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>136</v>
@@ -3141,44 +3147,44 @@
         <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>139</v>
@@ -3187,44 +3193,44 @@
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>142</v>
@@ -3233,7 +3239,7 @@
         <v>33</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>143</v>
@@ -3242,12 +3248,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>144</v>
@@ -3256,7 +3262,7 @@
         <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>145</v>
@@ -3265,12 +3271,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>146</v>
@@ -3279,7 +3285,7 @@
         <v>33</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>147</v>
@@ -3288,44 +3294,44 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>153</v>
@@ -3339,7 +3345,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>154</v>
@@ -3348,7 +3354,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>155</v>
@@ -3362,7 +3368,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>156</v>
@@ -3371,7 +3377,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>157</v>
@@ -3385,16 +3391,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>159</v>
@@ -3408,16 +3414,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>161</v>
@@ -3431,16 +3437,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>163</v>
@@ -3449,6 +3455,29 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -294,12 +294,6 @@
   </si>
   <si>
     <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Ulteriore cittadinanza di cui è in possesso</t>
@@ -568,14 +562,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1511,10 +1505,10 @@
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1531,7 +1525,7 @@
         <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1540,7 +1534,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1545,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1568,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1591,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1614,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1637,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1660,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1683,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1706,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1775,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1798,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1821,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1844,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1867,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1890,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1913,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1936,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1959,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1988,19 +1982,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2005,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2028,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2051,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2074,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2097,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2143,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2166,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2189,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2212,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2264,7 +2258,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>117</v>
@@ -2273,10 +2267,10 @@
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2304,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2327,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2350,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2373,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2396,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2419,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2442,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2465,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2488,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2511,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2534,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2557,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2580,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2603,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2626,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2649,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2672,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2695,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2718,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2741,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2764,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2787,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2810,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2856,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2879,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2902,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2925,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2948,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2971,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3000,7 +2994,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>117</v>
@@ -3009,10 +3003,10 @@
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3023,53 +3017,53 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>130</v>
@@ -3078,7 +3072,7 @@
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>131</v>
@@ -3087,12 +3081,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>132</v>
@@ -3101,7 +3095,7 @@
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>133</v>
@@ -3110,12 +3104,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>134</v>
@@ -3124,7 +3118,7 @@
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>135</v>
@@ -3133,12 +3127,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>136</v>
@@ -3147,44 +3141,44 @@
         <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>139</v>
@@ -3193,44 +3187,44 @@
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>142</v>
@@ -3239,7 +3233,7 @@
         <v>33</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>143</v>
@@ -3248,12 +3242,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>144</v>
@@ -3262,7 +3256,7 @@
         <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>145</v>
@@ -3271,12 +3265,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>146</v>
@@ -3285,7 +3279,7 @@
         <v>33</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>147</v>
@@ -3294,44 +3288,44 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>153</v>
@@ -3345,7 +3339,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>154</v>
@@ -3354,7 +3348,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>155</v>
@@ -3368,7 +3362,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>156</v>
@@ -3377,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>157</v>
@@ -3391,16 +3385,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>159</v>
@@ -3414,16 +3408,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>161</v>
@@ -3437,16 +3431,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>163</v>
@@ -3455,29 +3449,6 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -568,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -936,7 +948,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -959,7 +971,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
@@ -1005,7 +1017,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
@@ -1028,7 +1040,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
@@ -1120,7 +1132,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -1143,7 +1155,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1166,7 +1178,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1189,7 +1201,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1442,7 +1454,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1465,7 +1477,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>34</v>
@@ -1511,7 +1523,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>34</v>
@@ -1537,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1554,16 +1566,16 @@
         <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1586,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1609,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1632,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1655,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1678,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1701,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1724,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1747,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1770,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1793,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1816,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1839,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1862,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1885,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1908,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1931,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1954,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1977,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1988,7 +2000,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>112</v>
@@ -1997,10 +2009,10 @@
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2023,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2034,7 +2046,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>114</v>
@@ -2043,10 +2055,10 @@
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2057,7 +2069,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>115</v>
@@ -2066,10 +2078,10 @@
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2080,7 +2092,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>116</v>
@@ -2089,10 +2101,10 @@
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2115,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2138,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2161,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2184,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2207,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2230,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2253,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2276,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2322,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2345,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2368,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2391,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2414,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2437,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2460,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2483,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2506,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2529,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2552,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2575,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2598,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2621,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2632,7 +2644,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>108</v>
@@ -2641,10 +2653,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2667,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2678,7 +2690,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>110</v>
@@ -2687,10 +2699,10 @@
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2713,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2736,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2759,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2782,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2805,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2828,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2851,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2874,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2897,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2920,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2943,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2966,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2989,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3012,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3035,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3046,10 +3058,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>33</v>
@@ -3058,21 +3070,21 @@
         <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>33</v>
@@ -3081,21 +3093,21 @@
         <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>33</v>
@@ -3104,21 +3116,21 @@
         <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>33</v>
@@ -3127,21 +3139,21 @@
         <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>33</v>
@@ -3150,334 +3162,472 @@
         <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C124" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>18</v>
       </c>
     </row>
